--- a/projects/Project_Spark_Funds/presentation/Investments.xlsx
+++ b/projects/Project_Spark_Funds/presentation/Investments.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chiranjeev\Documents\Investment case study Cohort-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.bhatia\Documents\GitHub\PythonScripts\projects\Project_Spark_Funds\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,11 +17,8 @@
     <sheet name="Table-3.1" sheetId="5" r:id="rId3"/>
     <sheet name="Table-5.1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -33,16 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Sl.no</t>
   </si>
@@ -357,12 +345,36 @@
   </si>
   <si>
     <t>Sector-wise Investment Analysis</t>
+  </si>
+  <si>
+    <t>permalink</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>User_NOTE: Number of Records in master_frame(after imputing missing values):  94959</t>
+  </si>
+  <si>
+    <t>venture</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IND</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>IND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,47 +644,62 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,91 +1028,111 @@
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17">
+        <v>66368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="17"/>
-    </row>
-    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17">
+        <v>66368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C9" s="17">
+        <v>114949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A9">
     <cfRule type="colorScale" priority="7">
@@ -1106,7 +1153,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,31 +1164,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1149,45 +1196,55 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="C5" s="39">
+        <v>11748949.130000001</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="C6" s="39">
+        <v>958694.47</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="39">
+        <v>719818</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="C8" s="39">
+        <v>73308593.030000001</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1214,7 +1271,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,31 +1282,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-    </row>
-    <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1257,27 +1314,33 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1303,7 +1366,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,39 +1379,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="A3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>2</v>
+      <c r="C4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1356,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -1367,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -1378,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -1389,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -1400,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1411,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1422,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -1433,7 +1496,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1444,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -1455,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>

--- a/projects/Project_Spark_Funds/presentation/Investments.xlsx
+++ b/projects/Project_Spark_Funds/presentation/Investments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.bhatia\Documents\GitHub\PythonScripts\projects\Project_Spark_Funds\presentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\GitHub\PythonScripts\projects\Project_Spark_Funds\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7080" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Sl.no</t>
   </si>
@@ -353,9 +353,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>User_NOTE: Number of Records in master_frame(after imputing missing values):  94959</t>
-  </si>
-  <si>
     <t>venture</t>
   </si>
   <si>
@@ -368,13 +365,49 @@
     <t>GBR</t>
   </si>
   <si>
-    <t>IND</t>
+    <t>D1(USA)</t>
+  </si>
+  <si>
+    <t>D2(GBR)</t>
+  </si>
+  <si>
+    <t>D3(IND)</t>
+  </si>
+  <si>
+    <t>Cleantech / Semiconductors</t>
+  </si>
+  <si>
+    <t>Social, Finance, Analytics, Advertising</t>
+  </si>
+  <si>
+    <t>News, Search and Messaging</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Freescale Semiconductor</t>
+  </si>
+  <si>
+    <t>Powa Technologies</t>
+  </si>
+  <si>
+    <t>ShopClues.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groupon </t>
+  </si>
+  <si>
+    <t>ReNeuron Group</t>
+  </si>
+  <si>
+    <t>FreeCharge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,7 +478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,12 +692,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,21 +740,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,40 +1055,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -1058,7 +1099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1069,7 +1110,7 @@
         <v>66368</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1080,29 +1121,29 @@
         <v>66368</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1113,20 +1154,18 @@
         <v>114949</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1149,38 +1188,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="B1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+    </row>
+    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1191,59 +1230,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="39">
-        <v>11748949.130000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="26">
+        <v>10634054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="39">
-        <v>958694.47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="26">
+        <v>764564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="39">
-        <v>719818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="26">
+        <v>556607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="39">
-        <v>73308593.030000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="26">
+        <v>62111788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>40</v>
+      <c r="C9" s="26" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1267,38 +1306,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-    </row>
-    <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="B1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1309,37 +1348,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C5" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>42</v>
+      <c r="C7" s="27" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1362,42 +1401,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="B1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1405,124 +1442,184 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="41">
+        <v>38209</v>
+      </c>
+      <c r="D5" s="41">
+        <v>2296</v>
+      </c>
+      <c r="E5" s="41">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="42">
+        <v>421038036896</v>
+      </c>
+      <c r="D6" s="42">
+        <v>20156617818</v>
+      </c>
+      <c r="E6" s="42">
+        <v>14391858718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="41">
+        <v>8121</v>
+      </c>
+      <c r="D10" s="41">
+        <v>481</v>
+      </c>
+      <c r="E10" s="41">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="41">
+        <v>7822</v>
+      </c>
+      <c r="D11" s="41">
+        <v>460</v>
+      </c>
+      <c r="E11" s="41">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="41">
+        <v>4612</v>
+      </c>
+      <c r="D12" s="41">
+        <v>265</v>
+      </c>
+      <c r="E12" s="41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>10</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
